--- a/N2_L4_intestine_RNAseq/03_output/intestine/shared_genes_venn_diagram.xlsx
+++ b/N2_L4_intestine_RNAseq/03_output/intestine/shared_genes_venn_diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicahill/Documents/GitHub/C-elegans_Intestine_RNAseq/N2_L4_intestine_RNAseq/03_output/intestine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C932DEC5-7B2D-2D46-B6A5-EAA1096968DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3A6164-FC3C-484B-8E8D-6CF29B8FC523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="26900" windowHeight="19000" xr2:uid="{8260F6CF-94B3-B14C-A77D-F7046E11AA41}"/>
+    <workbookView xWindow="360" yWindow="7860" windowWidth="26900" windowHeight="19000" activeTab="3" xr2:uid="{8260F6CF-94B3-B14C-A77D-F7046E11AA41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2723,7 +2723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AD6145-693A-E848-8938-AB5B714E56B4}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -2886,8 +2886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD90DD8-D372-7B43-995E-69A2117A584C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/N2_L4_intestine_RNAseq/03_output/intestine/shared_genes_venn_diagram.xlsx
+++ b/N2_L4_intestine_RNAseq/03_output/intestine/shared_genes_venn_diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicahill/Documents/GitHub/C-elegans_Intestine_RNAseq/N2_L4_intestine_RNAseq/03_output/intestine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3A6164-FC3C-484B-8E8D-6CF29B8FC523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C49A5D-C57D-D74B-9177-C478B2BF1A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="7860" windowWidth="26900" windowHeight="19000" activeTab="3" xr2:uid="{8260F6CF-94B3-B14C-A77D-F7046E11AA41}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="26900" windowHeight="18880" activeTab="3" xr2:uid="{8260F6CF-94B3-B14C-A77D-F7046E11AA41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2887,7 +2887,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
